--- a/Docs/Excel/Special Hours Display and Description.xlsx
+++ b/Docs/Excel/Special Hours Display and Description.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
